--- a/data_processed/20250715/BTCUSDVOLSURFACE_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDVOLSURFACE_20250715.xlsx
@@ -19717,7 +19717,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49245,7 +49245,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49274,7 +49274,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49303,7 +49303,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49332,7 +49332,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49361,7 +49361,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49390,7 +49390,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49419,7 +49419,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49448,7 +49448,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49477,7 +49477,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49506,7 +49506,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -49535,7 +49535,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250715/BTCUSDVOLSURFACE_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDVOLSURFACE_20250715.xlsx
@@ -19717,7 +19717,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49245,7 +49245,7 @@
       </c>
       <c r="G1828" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49274,7 +49274,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49303,7 +49303,7 @@
       </c>
       <c r="G1830" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49332,7 +49332,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49361,7 +49361,7 @@
       </c>
       <c r="G1832" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49390,7 +49390,7 @@
       </c>
       <c r="G1833" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49419,7 +49419,7 @@
       </c>
       <c r="G1834" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49448,7 +49448,7 @@
       </c>
       <c r="G1835" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49477,7 +49477,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49506,7 +49506,7 @@
       </c>
       <c r="G1837" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -49535,7 +49535,7 @@
       </c>
       <c r="G1838" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
